--- a/biology/Zoologie/Gymnopleurus_mopsus/Gymnopleurus_mopsus.xlsx
+++ b/biology/Zoologie/Gymnopleurus_mopsus/Gymnopleurus_mopsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnopleurus mopsus est une espèce de coléoptères scarabéidés présente dans les régions paléarctiques (France, Italie, Hongrie, Slovaquie, Maroc, Algérie, Tunisie, Libye, Égypte, Bulgarie, Macédoine, Yougoslavie, sud de la Russie, Caucase, Asie mineure, Palestine, Transcaspie, Mongolie)[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnopleurus mopsus est une espèce de coléoptères scarabéidés présente dans les régions paléarctiques (France, Italie, Hongrie, Slovaquie, Maroc, Algérie, Tunisie, Libye, Égypte, Bulgarie, Macédoine, Yougoslavie, sud de la Russie, Caucase, Asie mineure, Palestine, Transcaspie, Mongolie).
 Elle est qualifiée de vulnérable dans le Libro Rojo de los Invertebrados de Andalucía (pp. 918-923)]
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopleurus mopsus subsp. persianus Reitter, 1909
 Gymnopleurus mopsus subsp. sinensis Balthasar, 1934
